--- a/biology/Botanique/Wladimir_de_Schœnefeld/Wladimir_de_Schœnefeld.xlsx
+++ b/biology/Botanique/Wladimir_de_Schœnefeld/Wladimir_de_Schœnefeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wladimir_de_Sch%C5%93nefeld</t>
+          <t>Wladimir_de_Schœnefeld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wladimir de Schœnefeld est un botaniste français, né le 12 janvier 1816 à Berlin et mort le 8 septembre 1875 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wladimir_de_Sch%C5%93nefeld</t>
+          <t>Wladimir_de_Schœnefeld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il arrive à Paris à l’âge d’un an. Il découvre très jeune la botanique grâce à Karl Sigismund Kunth (1788-1850) et suit les leçons d’Adrien de Jussieu (1797-1853). Devenu orphelin, il part vivre chez K. Kunth à Berlin jusqu’à ses 24 ans avant de revenir s’installer à Paris. Il se lie alors d’amitié avec des botanistes dont Ernest Saint-Charles Cosson (1819-1889).
 Lors d’un de ses réguliers voyages en Allemagne, il rencontre celle qui allait devenir sa femme.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wladimir_de_Sch%C5%93nefeld</t>
+          <t>Wladimir_de_Schœnefeld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>François Pellegrin (1954). Un siècle de Société de botanique de France. Bulletin de la Société botanique de France, supplément au no 101 : 17-46.</t>
         </is>
